--- a/curate_database/pathbank_headers.xlsx
+++ b/curate_database/pathbank_headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrigel/Documents/GitHub/pathway_searching/curate_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F89DE5-9480-C044-845B-A97808BF6E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F284BD5-A633-1842-AB5D-03A1B17E6D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="2580" windowWidth="27640" windowHeight="16940" xr2:uid="{16ED2DC3-0661-1349-A853-030840717D9C}"/>
   </bookViews>
